--- a/docs/excel/likes.xlsx
+++ b/docs/excel/likes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fh/Code/forum/docs/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1029A0-2C97-2043-8903-0D655651C961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C8BEC6-E839-5D41-B0A8-971E4AB15D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="7440" windowWidth="33600" windowHeight="20540" xr2:uid="{95A4C747-29D1-054C-B1D4-A9374F290856}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{95A4C747-29D1-054C-B1D4-A9374F290856}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -44,39 +44,18 @@
     <t>NO</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>varchar(191)</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>timestamp</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>remember_token</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>updated_at</t>
   </si>
   <si>
-    <t>avatar</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -95,25 +74,31 @@
     <t>PRI</t>
   </si>
   <si>
-    <t>UNI</t>
-  </si>
-  <si>
     <t>unique ID</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>user email</t>
-  </si>
-  <si>
-    <t>remember password or not</t>
-  </si>
-  <si>
     <t>create time</t>
   </si>
   <si>
     <t>update time</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>user ID</t>
+  </si>
+  <si>
+    <t>post ID</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
 </sst>
 </file>
@@ -170,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -184,6 +169,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,7 +198,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -226,7 +217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -245,7 +236,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -264,7 +255,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -283,7 +274,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -302,7 +293,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -343,14 +334,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C55ED7F7-8D3A-934E-AC94-2457FA4C26BD}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="2">
-  <autoFilter ref="A1:E9" xr:uid="{5ED118E0-C8A1-1945-8DC7-1C949E8F595B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C55ED7F7-8D3A-934E-AC94-2457FA4C26BD}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+  <autoFilter ref="A1:E6" xr:uid="{5ED118E0-C8A1-1945-8DC7-1C949E8F595B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D3267AEF-7790-134A-AAD1-0DC4FB205892}" name="Column" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{729EEE26-06A3-4041-8007-FDEAE8914D54}" name="Type" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{7C28CBAD-B30B-DF41-8547-97C9BE9F7461}" name="Key" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0FAF18BD-CDED-8C4E-AA7F-7D6B59E651E6}" name="Allow Null" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9FBCEFC1-A068-2644-BD4E-F318977B4AF8}" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0FAF18BD-CDED-8C4E-AA7F-7D6B59E651E6}" name="Allow Null" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9FBCEFC1-A068-2644-BD4E-F318977B4AF8}" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -653,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECD0FB1-87DC-F54E-B350-8A26F655049C}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
@@ -671,147 +662,113 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -824,12 +781,9 @@
     <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:E9">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="A2:E6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -837,7 +791,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -847,7 +801,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
